--- a/EXCEL/Danh sách điểm danh lớp 10B.xlsx
+++ b/EXCEL/Danh sách điểm danh lớp 10B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITY\WORK_CODE\KHKT_12_FINAL\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHKT_12_FINALLY\KHKT_12_FINAL\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B74A5-2737-41CE-8BA4-5033780B047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF41FD0-CC04-48C6-950C-D73A1857DD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="1308" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Họ và tên học sinh </t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>NguyenVanG</t>
+  </si>
+  <si>
+    <t>CaoHuuHiep</t>
   </si>
 </sst>
 </file>
@@ -45,7 +48,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,75 +358,79 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="24.8984375" customWidth="1"/>
+    <col min="1" max="22" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
